--- a/docentes/Martínez Castillo Columba - Estadisticos 20242.xlsx
+++ b/docentes/Martínez Castillo Columba - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="69">
   <si>
     <t>Mat</t>
   </si>
@@ -82,79 +82,94 @@
     <t>COBOS</t>
   </si>
   <si>
+    <t>LOBATO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>BONILLA</t>
+  </si>
+  <si>
+    <t>LLANOS</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
     <t>MENDOZA</t>
   </si>
   <si>
+    <t>MOLINA</t>
+  </si>
+  <si>
     <t>ARELLANO</t>
   </si>
   <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>BONILLA</t>
-  </si>
-  <si>
-    <t>GAMBOA</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>MOLINA</t>
+    <t>ZAVALA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
   </si>
   <si>
     <t>ANGELES</t>
   </si>
   <si>
-    <t>ZAVALA</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
     <t>VALENTE</t>
   </si>
   <si>
     <t>NOLASCO</t>
   </si>
   <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>CIRUELO</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>IBAÑEZ</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>TIZA</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
     <t>FIERROS</t>
   </si>
   <si>
-    <t>CIRUELO</t>
-  </si>
-  <si>
-    <t>IBAÑEZ</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
+    <t>DELGADO</t>
+  </si>
+  <si>
+    <t>LUGO</t>
   </si>
   <si>
     <t>ROCHA</t>
   </si>
   <si>
-    <t>DELGADO</t>
-  </si>
-  <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
-    <t>PRADO</t>
-  </si>
-  <si>
-    <t>LUGO</t>
+    <t>GUTIERREZ</t>
   </si>
   <si>
     <t>PULIDO</t>
@@ -163,40 +178,49 @@
     <t>YOLET</t>
   </si>
   <si>
+    <t>FABIAN ALEJANDRO</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>ARACELY</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>FERNANDA MARGARITA</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>AILYN</t>
+  </si>
+  <si>
+    <t>CRISTIAN OSMAR</t>
+  </si>
+  <si>
     <t>ERIK OMAR</t>
   </si>
   <si>
+    <t>VICTOR MANUEL</t>
+  </si>
+  <si>
     <t>ALDO EMANUEL</t>
   </si>
   <si>
-    <t>ARACELY</t>
-  </si>
-  <si>
-    <t>FERNANDA MARGARITA</t>
-  </si>
-  <si>
-    <t>CRHIS AMINADAB</t>
-  </si>
-  <si>
-    <t>AILYN</t>
-  </si>
-  <si>
-    <t>VICTOR MANUEL</t>
+    <t>AXEL GAEL</t>
+  </si>
+  <si>
+    <t>ZAYRA</t>
   </si>
   <si>
     <t>AZURA</t>
   </si>
   <si>
-    <t>AXEL GAEL</t>
-  </si>
-  <si>
-    <t>CRISTOPHER</t>
-  </si>
-  <si>
-    <t>ANETTE</t>
-  </si>
-  <si>
-    <t>ZAYRA</t>
+    <t>JARET</t>
   </si>
   <si>
     <t>JUAN EMANUEL</t>
@@ -749,16 +773,19 @@
         <v>41</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>97.56</v>
+      </c>
+      <c r="H2">
+        <v>9.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -772,16 +799,19 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>97.22</v>
+      </c>
+      <c r="H3">
+        <v>8.9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -795,16 +825,19 @@
         <v>20</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H4">
+        <v>6.8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -818,16 +851,19 @@
         <v>28</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="H5">
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
@@ -886,16 +922,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>95.12</v>
+        <v>97.56</v>
       </c>
       <c r="H2">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -921,7 +957,7 @@
         <v>97.22</v>
       </c>
       <c r="H3">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -947,7 +983,7 @@
         <v>60</v>
       </c>
       <c r="H4">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -973,7 +1009,7 @@
         <v>75</v>
       </c>
       <c r="H5">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -983,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1024,10 +1060,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -1041,16 +1077,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>22330051920192</v>
+        <v>22330051920413</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -1064,25 +1100,25 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>22330051920231</v>
+        <v>22330051920188</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1093,10 +1129,10 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -1110,22 +1146,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>22330051920233</v>
+        <v>22330051920371</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1133,16 +1169,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>22330051920239</v>
+        <v>22330051920233</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1156,16 +1192,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>22330051920366</v>
+        <v>21330051420317</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1179,45 +1215,45 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>22330051920193</v>
+        <v>22330051920366</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>22330051920230</v>
+        <v>22330051920359</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1225,22 +1261,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>22330051920176</v>
+        <v>22330051920192</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1248,16 +1284,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>22330051920358</v>
+        <v>22330051920193</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -1266,75 +1302,144 @@
         <v>12</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>22330051920098</v>
+        <v>22330051920231</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>22330051920100</v>
+        <v>22330051920176</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>22330051920401</v>
+        <v>22330051920100</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>22330051920230</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
         <v>13</v>
       </c>
-      <c r="G15">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>22330051920357</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>22330051920401</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18">
         <v>1</v>
       </c>
     </row>
